--- a/INTLINE/data/134/DEUSTATIS/National accounts - Population and employment.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Population and employment.xlsx
@@ -185,7 +185,7 @@
     <t>Including family workers.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:33:54</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-28 / 03:58:46</t>
   </si>
 </sst>
 </file>
@@ -2577,7 +2577,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:33:58&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.04.22 / 03:58:50&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/National accounts - Population and employment.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Population and employment.xlsx
@@ -185,7 +185,7 @@
     <t>Including family workers.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-28 / 03:58:46</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:39:27</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1319,7 @@
         <v>83161.0</v>
       </c>
       <c r="AG5" t="n" s="11">
-        <v>83196.0</v>
+        <v>83197.0</v>
       </c>
     </row>
     <row r="6">
@@ -1420,7 +1420,7 @@
         <v>36694.0</v>
       </c>
       <c r="AG6" t="n" s="11">
-        <v>36886.0</v>
+        <v>36860.0</v>
       </c>
     </row>
     <row r="7">
@@ -1521,7 +1521,7 @@
         <v>46467.0</v>
       </c>
       <c r="AG7" t="n" s="11">
-        <v>46310.0</v>
+        <v>46337.0</v>
       </c>
     </row>
     <row r="8">
@@ -1622,7 +1622,7 @@
         <v>1664.0</v>
       </c>
       <c r="AG8" t="n" s="11">
-        <v>1506.0</v>
+        <v>1536.0</v>
       </c>
     </row>
     <row r="9">
@@ -1723,7 +1723,7 @@
         <v>44803.0</v>
       </c>
       <c r="AG9" t="n" s="11">
-        <v>44804.0</v>
+        <v>44801.0</v>
       </c>
     </row>
     <row r="10">
@@ -1925,7 +1925,7 @@
         <v>40765.0</v>
       </c>
       <c r="AG11" t="n" s="11">
-        <v>40875.0</v>
+        <v>40872.0</v>
       </c>
     </row>
     <row r="12">
@@ -2026,7 +2026,7 @@
         <v>95.0</v>
       </c>
       <c r="AG12" t="n" s="11">
-        <v>116.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="13">
@@ -2127,7 +2127,7 @@
         <v>40860.0</v>
       </c>
       <c r="AG13" t="n" s="11">
-        <v>40991.0</v>
+        <v>40989.0</v>
       </c>
     </row>
     <row r="14">
@@ -2329,7 +2329,7 @@
         <v>44898.0</v>
       </c>
       <c r="AG15" t="n" s="11">
-        <v>44920.0</v>
+        <v>44918.0</v>
       </c>
     </row>
     <row r="16">
@@ -2577,7 +2577,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.04.22 / 03:58:50&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:39:30&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/National accounts - Population and employment.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Population and employment.xlsx
@@ -185,7 +185,7 @@
     <t>Including family workers.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:39:27</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 05:30:58</t>
   </si>
 </sst>
 </file>
@@ -2577,7 +2577,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:39:30&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 05:31:02&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>